--- a/config_4.6/game_enter_btn_config.xlsx
+++ b/config_4.6/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="387">
   <si>
     <t>id|行号</t>
   </si>
@@ -1721,6 +1721,10 @@
   </si>
   <si>
     <t>131#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3308,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3434,11 +3438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5718,7 +5722,7 @@
         <v>377</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>309</v>
@@ -5727,7 +5731,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_4.6/game_enter_btn_config.xlsx
+++ b/config_4.6/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="390">
   <si>
     <t>id|行号</t>
   </si>
@@ -1640,10 +1640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>126#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1720,11 +1716,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>131#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐爬塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日扩展活动（非新玩家）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;131#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2780,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2813,7 +2825,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2835,7 +2847,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2888,10 +2900,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3325,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3337,7 +3349,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3375,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3419,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3436,13 +3448,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3663,7 +3675,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5091,7 +5103,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5682,7 +5694,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5691,7 +5703,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5705,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5719,7 +5731,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5731,7 +5743,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,36 +5751,56 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E131" s="6">
         <v>130</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>26</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>383</v>
+      <c r="B132" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>387</v>
       </c>
       <c r="E132" s="6">
         <v>131</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>132</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5885,7 +5917,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,10 +5956,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
